--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsusIran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Ap\Group05\Group-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221EA5CA-F3BB-4039-8735-6B894F23E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE6AA6F-18DF-4094-B15B-D00BFC1E3129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{567B7C76-1CED-4D0D-B579-74A0634403A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{567B7C76-1CED-4D0D-B579-74A0634403A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Skellige" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -859,22 +859,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,9 +872,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -904,9 +892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -944,7 +932,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1050,7 +1038,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1192,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1202,14 +1190,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2282DC8-EBD1-4E62-A2B3-958FFA21430E}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="120.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="120.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
@@ -1316,7 +1306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.399999999999999">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1324,7 +1314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.399999999999999">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1428,21 +1418,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D466120D-0D08-489C-8741-6BBE850FC091}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="120.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="120.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1">
+    <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
@@ -1450,307 +1440,198 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.8">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="23">
+      <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.8">
-      <c r="A16" s="13" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="23">
+      <c r="A16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.8">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="23">
+      <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.8">
-      <c r="A18" s="13" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="23">
+      <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="14" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="14" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,20 +1641,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8AB8C-3154-4895-9D58-77BE227226CB}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" customWidth="1"/>
-    <col min="3" max="3" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" customWidth="1"/>
+    <col min="3" max="3" width="80.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4">
+    <row r="1" spans="1:5" ht="26">
       <c r="A1" s="9" t="s">
         <v>80</v>
       </c>
@@ -1784,305 +1665,277 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.399999999999999">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.399999999999999">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.399999999999999">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.399999999999999">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.399999999999999">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="21">
       <c r="A19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.399999999999999">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="21">
       <c r="A20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.399999999999999">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2091,19 +1944,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC779F3-E2D5-4704-A661-D99BE65CB46E}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="73.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>121</v>
       </c>
@@ -2114,467 +1967,331 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="26.4">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" ht="26">
+      <c r="A2" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" ht="26.4">
-      <c r="A4" s="16" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="26">
+      <c r="A4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.4">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.4">
-      <c r="A6" s="16" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="26">
+      <c r="A6" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="16" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="17" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="16" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.4">
-      <c r="A11" s="16" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="17" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="16" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="16" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="16" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="26.4">
-      <c r="A16" s="16" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="26">
+      <c r="A16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="26.4">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="26">
+      <c r="A17" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="16" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="17" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="16" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="16" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="26.4">
-      <c r="A22" s="16" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="26">
+      <c r="A22" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="17" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="17" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="18" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="17" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" ht="26.4">
-      <c r="A27" s="16" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="26">
+      <c r="A27" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2585,19 +2302,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C890393-F891-4FA7-BAC3-578641B23850}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="107.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="107.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>158</v>
       </c>
@@ -2608,477 +2325,357 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.399999999999999">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,463 +2684,310 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5C1FC-83BD-41B1-A305-47385F977F9D}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="95.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="95.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>217</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="22.8">
-      <c r="A8" s="13" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="23">
+      <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="22" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="13" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.8">
-      <c r="A14" s="13" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="23">
+      <c r="A14" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="14" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.8">
-      <c r="A17" s="13" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23">
+      <c r="A17" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.8">
-      <c r="A21" s="14" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="23">
+      <c r="A21" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Ap\Group05\Group-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE6AA6F-18DF-4094-B15B-D00BFC1E3129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D2F075-D007-4EFD-99A7-16744C46FDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{567B7C76-1CED-4D0D-B579-74A0634403A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{567B7C76-1CED-4D0D-B579-74A0634403A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Skellige" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Skellige</t>
   </si>
   <si>
-    <t>در دور سوم بازی دو کارت رندوم از قبرستان اضافه می شود</t>
-  </si>
-  <si>
     <t>Mardoeme</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>در ردیف دوم قرار میگیرد و هر کارت مشابه خود را که در hand یا deck قرار دارد به میز می آورد</t>
   </si>
   <si>
-    <t>Iorveth</t>
-  </si>
-  <si>
     <t>Yaevinn</t>
   </si>
   <si>
@@ -757,6 +751,12 @@
   </si>
   <si>
     <t>Zoltan Chivay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2W</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2282DC8-EBD1-4E62-A2B3-958FFA21430E}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1207,207 +1207,207 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
       <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D466120D-0D08-489C-8741-6BBE850FC091}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1434,194 +1434,194 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23">
       <c r="A16" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23">
       <c r="A17" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23">
       <c r="A18" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1656,285 +1656,285 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26">
       <c r="A1" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="21">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="21">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="21">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="21">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="21">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="21">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="21">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1958,341 +1958,341 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="26">
       <c r="A2" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="26">
       <c r="A4" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="26">
       <c r="A6" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="26">
       <c r="A16" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="26">
       <c r="A17" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="26">
       <c r="A22" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26">
       <c r="A27" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2316,365 +2316,365 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="21">
       <c r="A25" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2698,242 +2698,242 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="23">
       <c r="A8" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="23">
       <c r="A14" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="23">
       <c r="A17" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="23">
       <c r="A21" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
